--- a/Code/Results/Cases/Case_3_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.453789215263555</v>
+        <v>1.496380138435313</v>
       </c>
       <c r="C2">
-        <v>0.4596080013799622</v>
+        <v>0.2359739162366168</v>
       </c>
       <c r="D2">
-        <v>0.01406648385689735</v>
+        <v>0.02386469121225687</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.090328540118847</v>
+        <v>1.023397369854379</v>
       </c>
       <c r="G2">
-        <v>1.050193438868519</v>
+        <v>0.8893506071809298</v>
       </c>
       <c r="H2">
-        <v>0.6155347371111333</v>
+        <v>0.8848630456311497</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4104526402945794</v>
+        <v>0.3018752520318202</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.601299125050299</v>
+        <v>1.233405052160335</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992077456791492</v>
+        <v>1.371840339602613</v>
       </c>
       <c r="C3">
-        <v>0.4129285460153937</v>
+        <v>0.2208795657851397</v>
       </c>
       <c r="D3">
-        <v>0.01457386662957916</v>
+        <v>0.02400539213954644</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9798387851853221</v>
+        <v>1.003819487599259</v>
       </c>
       <c r="G3">
-        <v>0.9398710262080101</v>
+        <v>0.8690602222197867</v>
       </c>
       <c r="H3">
-        <v>0.5721130959274063</v>
+        <v>0.881256007310995</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3608402396523616</v>
+        <v>0.2906286024141878</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6481255667894326</v>
+        <v>1.251481950687188</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.711206498564422</v>
+        <v>1.29592693277317</v>
       </c>
       <c r="C4">
-        <v>0.384314218275648</v>
+        <v>0.2115271490611406</v>
       </c>
       <c r="D4">
-        <v>0.01490034235368221</v>
+        <v>0.02409757321673212</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9144382890904978</v>
+        <v>0.992571909041601</v>
       </c>
       <c r="G4">
-        <v>0.8746921312503986</v>
+        <v>0.8573375039210873</v>
       </c>
       <c r="H4">
-        <v>0.5468771634577934</v>
+        <v>0.8796002899677831</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3309526823020974</v>
+        <v>0.2839064219215857</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6782018505767402</v>
+        <v>1.263137123067616</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.597311549703818</v>
+        <v>1.265131117602323</v>
       </c>
       <c r="C5">
-        <v>0.3726581626163465</v>
+        <v>0.2076947605252428</v>
       </c>
       <c r="D5">
-        <v>0.01503694726161342</v>
+        <v>0.02413659543876889</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8883458789247811</v>
+        <v>0.9881820962275185</v>
       </c>
       <c r="G5">
-        <v>0.8487155268304747</v>
+        <v>0.8527444010932754</v>
       </c>
       <c r="H5">
-        <v>0.536924171862978</v>
+        <v>0.8790658152656334</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3189025777565888</v>
+        <v>0.2812130557654058</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6907786561871272</v>
+        <v>1.268026287672965</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.57843063163142</v>
+        <v>1.260025924939328</v>
       </c>
       <c r="C6">
-        <v>0.3707227530243102</v>
+        <v>0.2070571155544343</v>
       </c>
       <c r="D6">
-        <v>0.01505984042111663</v>
+        <v>0.0241431631441209</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8840454714996184</v>
+        <v>0.9874648451192343</v>
       </c>
       <c r="G6">
-        <v>0.8444357670373819</v>
+        <v>0.8519928042247074</v>
       </c>
       <c r="H6">
-        <v>0.5352906998453903</v>
+        <v>0.87898552703669</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3169090533483399</v>
+        <v>0.2807685978889793</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6928860288506424</v>
+        <v>1.268846554858656</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.70966831822426</v>
+        <v>1.295511044644172</v>
       </c>
       <c r="C7">
-        <v>0.3841570116113928</v>
+        <v>0.2114755499407721</v>
       </c>
       <c r="D7">
-        <v>0.0149021704653709</v>
+        <v>0.02409809357999571</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.914084204901485</v>
+        <v>0.9925119233918167</v>
       </c>
       <c r="G7">
-        <v>0.8743395111625034</v>
+        <v>0.8572748160299568</v>
       </c>
       <c r="H7">
-        <v>0.5467416292791114</v>
+        <v>0.8795925144521419</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3307896660879379</v>
+        <v>0.2838699122369093</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6783701842091689</v>
+        <v>1.263202495130586</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.293986079301135</v>
+        <v>1.453323720635353</v>
       </c>
       <c r="C8">
-        <v>0.443498564821823</v>
+        <v>0.2307869178632131</v>
       </c>
       <c r="D8">
-        <v>0.01423820428464495</v>
+        <v>0.02391200411451422</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.051690841127368</v>
+        <v>1.016485927433152</v>
       </c>
       <c r="G8">
-        <v>1.011586028434095</v>
+        <v>0.8822011920916992</v>
       </c>
       <c r="H8">
-        <v>0.6002499948879745</v>
+        <v>0.8835031136915035</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.393217529229247</v>
+        <v>0.2979592864033549</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6171620810876606</v>
+        <v>1.239522477357763</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.46544317288101</v>
+        <v>1.767208467247315</v>
       </c>
       <c r="C9">
-        <v>0.5606068960772177</v>
+        <v>0.2679871587763785</v>
       </c>
       <c r="D9">
-        <v>0.01306482569886036</v>
+        <v>0.02359295888016</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.34359791349037</v>
+        <v>1.069674504525835</v>
       </c>
       <c r="G9">
-        <v>1.303945753471766</v>
+        <v>0.9369672730068714</v>
       </c>
       <c r="H9">
-        <v>0.7178381970217913</v>
+        <v>0.8956238237065293</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5209456666170951</v>
+        <v>0.3270501326304895</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5082573779369723</v>
+        <v>1.19750475575812</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.349128290760973</v>
+        <v>2.000556825470028</v>
       </c>
       <c r="C10">
-        <v>0.6476680172634417</v>
+        <v>0.2949135101683567</v>
       </c>
       <c r="D10">
-        <v>0.01229770612560799</v>
+        <v>0.02338644672943424</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.575629536807696</v>
+        <v>1.112577684185098</v>
       </c>
       <c r="G10">
-        <v>1.537347957173893</v>
+        <v>0.9808644450780264</v>
       </c>
       <c r="H10">
-        <v>0.814012211136145</v>
+        <v>0.9072683362405201</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6191676786912552</v>
+        <v>0.3493268375538037</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4359561551162598</v>
+        <v>1.169338184251397</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.757987648387598</v>
+        <v>2.107319100548921</v>
       </c>
       <c r="C11">
-        <v>0.6876405682062057</v>
+        <v>0.3070760254815639</v>
       </c>
       <c r="D11">
-        <v>0.01197386584824933</v>
+        <v>0.02329854397036257</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.686028980211844</v>
+        <v>1.132939629699848</v>
       </c>
       <c r="G11">
-        <v>1.648680293927868</v>
+        <v>1.001645289109433</v>
       </c>
       <c r="H11">
-        <v>0.8604044039185794</v>
+        <v>0.9131662445340964</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6650877713683627</v>
+        <v>0.3596602187198954</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4049709808408468</v>
+        <v>1.157113824329437</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.913971266937835</v>
+        <v>2.147835464702439</v>
       </c>
       <c r="C12">
-        <v>0.7028435462127902</v>
+        <v>0.3116692430852481</v>
       </c>
       <c r="D12">
-        <v>0.01185530688683656</v>
+        <v>0.02326612576330689</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.728627386725549</v>
+        <v>1.140772674777338</v>
       </c>
       <c r="G12">
-        <v>1.691684460714583</v>
+        <v>1.009632384226819</v>
       </c>
       <c r="H12">
-        <v>0.8784001828968826</v>
+        <v>0.9154864382950052</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6826811147385001</v>
+        <v>0.3636020853930688</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3935336289409568</v>
+        <v>1.152569672151834</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.880323019705486</v>
+        <v>2.139105636004103</v>
       </c>
       <c r="C13">
-        <v>0.6995661379544345</v>
+        <v>0.3106805663492764</v>
       </c>
       <c r="D13">
-        <v>0.01188065145129436</v>
+        <v>0.02327306896729375</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.71941617770365</v>
+        <v>1.139080229422987</v>
       </c>
       <c r="G13">
-        <v>1.682383391646312</v>
+        <v>1.007906961737461</v>
       </c>
       <c r="H13">
-        <v>0.8745046090690778</v>
+        <v>0.9149828769797921</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6788825334728585</v>
+        <v>0.3627518490146571</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3959833223394003</v>
+        <v>1.15354455394546</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.770796277674094</v>
+        <v>2.110650646609258</v>
       </c>
       <c r="C14">
-        <v>0.6888899169425713</v>
+        <v>0.3074541622374909</v>
       </c>
       <c r="D14">
-        <v>0.01196402742042224</v>
+        <v>0.02329585949460977</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.689517109294584</v>
+        <v>1.133581600425345</v>
       </c>
       <c r="G14">
-        <v>1.652200703876531</v>
+        <v>1.002300024182318</v>
       </c>
       <c r="H14">
-        <v>0.8618760541331767</v>
+        <v>0.9133553867150113</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6665309290738861</v>
+        <v>0.3599839396794806</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4040239543940642</v>
+        <v>1.156738270061372</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.703864080598066</v>
+        <v>2.093232578106495</v>
       </c>
       <c r="C15">
-        <v>0.6823594715867785</v>
+        <v>0.3054762724560476</v>
       </c>
       <c r="D15">
-        <v>0.01201564283586798</v>
+        <v>0.02330993248138391</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.671309288025171</v>
+        <v>1.130229500607982</v>
       </c>
       <c r="G15">
-        <v>1.633826247423826</v>
+        <v>0.9988809922385826</v>
       </c>
       <c r="H15">
-        <v>0.8541979633048129</v>
+        <v>0.912369815557156</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6589926624996707</v>
+        <v>0.3582922751705979</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.408988326206297</v>
+        <v>1.158705584664472</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.322560669093946</v>
+        <v>1.993591949140637</v>
       </c>
       <c r="C16">
-        <v>0.6450642264784108</v>
+        <v>0.2941169191222457</v>
       </c>
       <c r="D16">
-        <v>0.01231941306287965</v>
+        <v>0.02339231293071009</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.568520146353862</v>
+        <v>1.111264064795293</v>
       </c>
       <c r="G16">
-        <v>1.530184488905888</v>
+        <v>0.979522797819385</v>
       </c>
       <c r="H16">
-        <v>0.8110375363624485</v>
+        <v>0.9068950165992078</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6161938001087606</v>
+        <v>0.3486555549086603</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4380212815594531</v>
+        <v>1.170148946423471</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.090517463271169</v>
+        <v>1.932622089225219</v>
       </c>
       <c r="C17">
-        <v>0.6222880641714426</v>
+        <v>0.2871261640409273</v>
       </c>
       <c r="D17">
-        <v>0.01251250605079512</v>
+        <v>0.0234443977593557</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.506768638994288</v>
+        <v>1.099846464613208</v>
       </c>
       <c r="G17">
-        <v>1.467994581257926</v>
+        <v>0.9678558779399395</v>
       </c>
       <c r="H17">
-        <v>0.7852693827506698</v>
+        <v>0.9036905539724103</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5902731464283448</v>
+        <v>0.3427949579071594</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4563350043092806</v>
+        <v>1.177320073460731</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.957687465593665</v>
+        <v>1.897611344218205</v>
       </c>
       <c r="C18">
-        <v>0.6092215739583082</v>
+        <v>0.2830971347231923</v>
       </c>
       <c r="D18">
-        <v>0.01262590152492216</v>
+        <v>0.02347492413200314</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.471700751612929</v>
+        <v>1.09335885130433</v>
       </c>
       <c r="G18">
-        <v>1.432703129833271</v>
+        <v>0.9612217182709912</v>
       </c>
       <c r="H18">
-        <v>0.770693745218864</v>
+        <v>0.9019039544451175</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5754791067028862</v>
+        <v>0.3394428761021686</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4670464279709257</v>
+        <v>1.181500114999875</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.912817701971335</v>
+        <v>1.885767185835505</v>
       </c>
       <c r="C19">
-        <v>0.6048029011117535</v>
+        <v>0.2817315790946964</v>
       </c>
       <c r="D19">
-        <v>0.0126646832358599</v>
+        <v>0.02348535749161584</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.459901897774984</v>
+        <v>1.091175881851171</v>
       </c>
       <c r="G19">
-        <v>1.420833262935218</v>
+        <v>0.9589885844077628</v>
       </c>
       <c r="H19">
-        <v>0.7657994697788979</v>
+        <v>0.901308738376855</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5704890642124383</v>
+        <v>0.3383111398777601</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4707030417735782</v>
+        <v>1.182924911461728</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.115151952063172</v>
+        <v>1.939106483636237</v>
       </c>
       <c r="C20">
-        <v>0.6247090402660831</v>
+        <v>0.2878711837357173</v>
       </c>
       <c r="D20">
-        <v>0.01249170636862651</v>
+        <v>0.02343879439773389</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.513294964705366</v>
+        <v>1.101053654438317</v>
       </c>
       <c r="G20">
-        <v>1.474564561239163</v>
+        <v>0.9690899321900588</v>
       </c>
       <c r="H20">
-        <v>0.7879867037109705</v>
+        <v>0.9040258217822839</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5930203773736906</v>
+        <v>0.3434168839571186</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4543669170583011</v>
+        <v>1.17655095914099</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.802934076886061</v>
+        <v>2.119006183948272</v>
       </c>
       <c r="C21">
-        <v>0.6920238701933386</v>
+        <v>0.3084021738586102</v>
       </c>
       <c r="D21">
-        <v>0.01193942332627884</v>
+        <v>0.02328914178733399</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.698276868782287</v>
+        <v>1.135193351470008</v>
       </c>
       <c r="G21">
-        <v>1.66104227608318</v>
+        <v>1.003943710663151</v>
       </c>
       <c r="H21">
-        <v>0.8655733397519043</v>
+        <v>0.9138310615964542</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6701531236292197</v>
+        <v>0.3607961579424028</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4016540028172715</v>
+        <v>1.155797890460588</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.259278637348871</v>
+        <v>2.237092839471984</v>
       </c>
       <c r="C22">
-        <v>0.7364114481800925</v>
+        <v>0.3217477030749194</v>
       </c>
       <c r="D22">
-        <v>0.01160248003962217</v>
+        <v>0.02319639856061606</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.823844742591206</v>
+        <v>1.158219585208755</v>
       </c>
       <c r="G22">
-        <v>1.787898147748166</v>
+        <v>1.027410051649866</v>
       </c>
       <c r="H22">
-        <v>0.9188020105526675</v>
+        <v>0.9207453819146849</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7217695377490543</v>
+        <v>0.3723226823111503</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3689407580294857</v>
+        <v>1.1427298370928</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.015032049566912</v>
+        <v>2.174020949308783</v>
       </c>
       <c r="C23">
-        <v>0.7126801433740582</v>
+        <v>0.3146316029752825</v>
       </c>
       <c r="D23">
-        <v>0.01177994476834243</v>
+        <v>0.02324543399225298</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.756365040335467</v>
+        <v>1.145864424549316</v>
       </c>
       <c r="G23">
-        <v>1.719699716364374</v>
+        <v>1.014822361633151</v>
       </c>
       <c r="H23">
-        <v>0.8901448618383654</v>
+        <v>0.9170086456882416</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6941011183283337</v>
+        <v>0.3661553261822377</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3862334938156118</v>
+        <v>1.149659089327352</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.104012922139759</v>
+        <v>1.936174759221331</v>
       </c>
       <c r="C24">
-        <v>0.6236144312798615</v>
+        <v>0.2875343913276822</v>
       </c>
       <c r="D24">
-        <v>0.01250110251375247</v>
+        <v>0.02344132586341274</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.510343068514743</v>
+        <v>1.100507645644043</v>
       </c>
       <c r="G24">
-        <v>1.471592840842732</v>
+        <v>0.9685317880029345</v>
       </c>
       <c r="H24">
-        <v>0.7867574626150713</v>
+        <v>0.9038740737677529</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5917780195433124</v>
+        <v>0.3431356574611044</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4552561221262899</v>
+        <v>1.176898497367752</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.14506888536971</v>
+        <v>1.68181702439756</v>
       </c>
       <c r="C25">
-        <v>0.5287913626221439</v>
+        <v>0.2579948186719321</v>
       </c>
       <c r="D25">
-        <v>0.0133669318589611</v>
+        <v>0.02367436662889233</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.261865540985525</v>
+        <v>1.054618188909842</v>
       </c>
       <c r="G25">
-        <v>1.221934708445929</v>
+        <v>0.9215140336207526</v>
       </c>
       <c r="H25">
-        <v>0.6844708759375067</v>
+        <v>0.8918656240284975</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4857118374277576</v>
+        <v>0.3190225148812971</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5364374973105219</v>
+        <v>1.208397590760398</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.496380138435313</v>
+        <v>3.453789215263441</v>
       </c>
       <c r="C2">
-        <v>0.2359739162366168</v>
+        <v>0.4596080013799622</v>
       </c>
       <c r="D2">
-        <v>0.02386469121225687</v>
+        <v>0.01406648385682452</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.023397369854379</v>
+        <v>1.090328540118833</v>
       </c>
       <c r="G2">
-        <v>0.8893506071809298</v>
+        <v>1.050193438868519</v>
       </c>
       <c r="H2">
-        <v>0.8848630456311497</v>
+        <v>0.6155347371110196</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3018752520318202</v>
+        <v>0.4104526402946789</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.233405052160335</v>
+        <v>0.6012991250502449</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.371840339602613</v>
+        <v>2.992077456791662</v>
       </c>
       <c r="C3">
-        <v>0.2208795657851397</v>
+        <v>0.4129285460155643</v>
       </c>
       <c r="D3">
-        <v>0.02400539213954644</v>
+        <v>0.01457386662951521</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.003819487599259</v>
+        <v>0.9798387851853221</v>
       </c>
       <c r="G3">
-        <v>0.8690602222197867</v>
+        <v>0.9398710262079533</v>
       </c>
       <c r="H3">
-        <v>0.881256007310995</v>
+        <v>0.5721130959274205</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2906286024141878</v>
+        <v>0.3608402396523616</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.251481950687188</v>
+        <v>0.648125566789425</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.29592693277317</v>
+        <v>2.711206498564536</v>
       </c>
       <c r="C4">
-        <v>0.2115271490611406</v>
+        <v>0.3843142182759038</v>
       </c>
       <c r="D4">
-        <v>0.02409757321673212</v>
+        <v>0.0149003423537053</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.992571909041601</v>
+        <v>0.9144382890904694</v>
       </c>
       <c r="G4">
-        <v>0.8573375039210873</v>
+        <v>0.874692131250427</v>
       </c>
       <c r="H4">
-        <v>0.8796002899677831</v>
+        <v>0.5468771634577791</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2839064219215857</v>
+        <v>0.3309526823020832</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.263137123067616</v>
+        <v>0.6782018505767473</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.265131117602323</v>
+        <v>2.597311549703818</v>
       </c>
       <c r="C5">
-        <v>0.2076947605252428</v>
+        <v>0.3726581626164318</v>
       </c>
       <c r="D5">
-        <v>0.02413659543876889</v>
+        <v>0.01503694726166493</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9881820962275185</v>
+        <v>0.8883458789247811</v>
       </c>
       <c r="G5">
-        <v>0.8527444010932754</v>
+        <v>0.8487155268305457</v>
       </c>
       <c r="H5">
-        <v>0.8790658152656334</v>
+        <v>0.536924171862978</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2812130557654058</v>
+        <v>0.3189025777564893</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.268026287672965</v>
+        <v>0.6907786561870686</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.260025924939328</v>
+        <v>2.578430631631534</v>
       </c>
       <c r="C6">
-        <v>0.2070571155544343</v>
+        <v>0.370722753024296</v>
       </c>
       <c r="D6">
-        <v>0.0241431631441209</v>
+        <v>0.01505984042100117</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9874648451192343</v>
+        <v>0.8840454714996042</v>
       </c>
       <c r="G6">
-        <v>0.8519928042247074</v>
+        <v>0.8444357670373819</v>
       </c>
       <c r="H6">
-        <v>0.87898552703669</v>
+        <v>0.5352906998452909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2807685978889793</v>
+        <v>0.3169090533483541</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.268846554858656</v>
+        <v>0.6928860288506766</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.295511044644172</v>
+        <v>2.709668318224146</v>
       </c>
       <c r="C7">
-        <v>0.2114755499407721</v>
+        <v>0.3841570116110233</v>
       </c>
       <c r="D7">
-        <v>0.02409809357999571</v>
+        <v>0.01490217046532294</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9925119233918167</v>
+        <v>0.914084204901485</v>
       </c>
       <c r="G7">
-        <v>0.8572748160299568</v>
+        <v>0.8743395111625176</v>
       </c>
       <c r="H7">
-        <v>0.8795925144521419</v>
+        <v>0.5467416292791114</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2838699122369093</v>
+        <v>0.3307896660878384</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.263202495130586</v>
+        <v>0.6783701842092031</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.453323720635353</v>
+        <v>3.293986079301192</v>
       </c>
       <c r="C8">
-        <v>0.2307869178632131</v>
+        <v>0.4434985648216809</v>
       </c>
       <c r="D8">
-        <v>0.02391200411451422</v>
+        <v>0.0142382042845739</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.016485927433152</v>
+        <v>1.051690841127382</v>
       </c>
       <c r="G8">
-        <v>0.8822011920916992</v>
+        <v>1.011586028434138</v>
       </c>
       <c r="H8">
-        <v>0.8835031136915035</v>
+        <v>0.6002499948879745</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2979592864033549</v>
+        <v>0.3932175292292612</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.239522477357763</v>
+        <v>0.6171620810876708</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.767208467247315</v>
+        <v>4.465443172880953</v>
       </c>
       <c r="C9">
-        <v>0.2679871587763785</v>
+        <v>0.5606068960772177</v>
       </c>
       <c r="D9">
-        <v>0.02359295888016</v>
+        <v>0.01306482569897405</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.069674504525835</v>
+        <v>1.34359791349037</v>
       </c>
       <c r="G9">
-        <v>0.9369672730068714</v>
+        <v>1.30394575347168</v>
       </c>
       <c r="H9">
-        <v>0.8956238237065293</v>
+        <v>0.7178381970216776</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3270501326304895</v>
+        <v>0.5209456666170809</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.19750475575812</v>
+        <v>0.5082573779369661</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.000556825470028</v>
+        <v>5.34912829076103</v>
       </c>
       <c r="C10">
-        <v>0.2949135101683567</v>
+        <v>0.6476680172634133</v>
       </c>
       <c r="D10">
-        <v>0.02338644672943424</v>
+        <v>0.01229770612569325</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.112577684185098</v>
+        <v>1.575629536807682</v>
       </c>
       <c r="G10">
-        <v>0.9808644450780264</v>
+        <v>1.537347957173949</v>
       </c>
       <c r="H10">
-        <v>0.9072683362405201</v>
+        <v>0.8140122111360029</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3493268375538037</v>
+        <v>0.6191676786911415</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.169338184251397</v>
+        <v>0.4359561551162563</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.107319100548921</v>
+        <v>5.757987648387598</v>
       </c>
       <c r="C11">
-        <v>0.3070760254815639</v>
+        <v>0.6876405682060351</v>
       </c>
       <c r="D11">
-        <v>0.02329854397036257</v>
+        <v>0.01197386584815341</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.132939629699848</v>
+        <v>1.686028980211859</v>
       </c>
       <c r="G11">
-        <v>1.001645289109433</v>
+        <v>1.648680293927811</v>
       </c>
       <c r="H11">
-        <v>0.9131662445340964</v>
+        <v>0.8604044039184657</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3596602187198954</v>
+        <v>0.6650877713684054</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.157113824329437</v>
+        <v>0.4049709808407811</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.147835464702439</v>
+        <v>5.913971266937949</v>
       </c>
       <c r="C12">
-        <v>0.3116692430852481</v>
+        <v>0.7028435462129039</v>
       </c>
       <c r="D12">
-        <v>0.02326612576330689</v>
+        <v>0.01185530688692182</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.140772674777338</v>
+        <v>1.728627386725535</v>
       </c>
       <c r="G12">
-        <v>1.009632384226819</v>
+        <v>1.691684460714612</v>
       </c>
       <c r="H12">
-        <v>0.9154864382950052</v>
+        <v>0.8784001828968826</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3636020853930688</v>
+        <v>0.6826811147385428</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.152569672151834</v>
+        <v>0.393533628940943</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.139105636004103</v>
+        <v>5.880323019705713</v>
       </c>
       <c r="C13">
-        <v>0.3106805663492764</v>
+        <v>0.6995661379542071</v>
       </c>
       <c r="D13">
-        <v>0.02327306896729375</v>
+        <v>0.01188065145120198</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.139080229422987</v>
+        <v>1.719416177703621</v>
       </c>
       <c r="G13">
-        <v>1.007906961737461</v>
+        <v>1.68238339164634</v>
       </c>
       <c r="H13">
-        <v>0.9149828769797921</v>
+        <v>0.8745046090691915</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3627518490146571</v>
+        <v>0.6788825334729438</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.15354455394546</v>
+        <v>0.3959833223394664</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.110650646609258</v>
+        <v>5.770796277674208</v>
       </c>
       <c r="C14">
-        <v>0.3074541622374909</v>
+        <v>0.6888899169424008</v>
       </c>
       <c r="D14">
-        <v>0.02329585949460977</v>
+        <v>0.01196402742052527</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.133581600425345</v>
+        <v>1.689517109294599</v>
       </c>
       <c r="G14">
-        <v>1.002300024182318</v>
+        <v>1.652200703876559</v>
       </c>
       <c r="H14">
-        <v>0.9133553867150113</v>
+        <v>0.8618760541331483</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3599839396794806</v>
+        <v>0.6665309290739287</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.156738270061372</v>
+        <v>0.4040239543940491</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.093232578106495</v>
+        <v>5.703864080598066</v>
       </c>
       <c r="C15">
-        <v>0.3054762724560476</v>
+        <v>0.6823594715870342</v>
       </c>
       <c r="D15">
-        <v>0.02330993248138391</v>
+        <v>0.01201564283597634</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.130229500607982</v>
+        <v>1.671309288025171</v>
       </c>
       <c r="G15">
-        <v>0.9988809922385826</v>
+        <v>1.633826247423912</v>
       </c>
       <c r="H15">
-        <v>0.912369815557156</v>
+        <v>0.8541979633049266</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3582922751705979</v>
+        <v>0.6589926624995996</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.158705584664472</v>
+        <v>0.408988326206285</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.993591949140637</v>
+        <v>5.322560669093775</v>
       </c>
       <c r="C16">
-        <v>0.2941169191222457</v>
+        <v>0.6450642264782687</v>
       </c>
       <c r="D16">
-        <v>0.02339231293071009</v>
+        <v>0.01231941306275708</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.111264064795293</v>
+        <v>1.568520146353862</v>
       </c>
       <c r="G16">
-        <v>0.979522797819385</v>
+        <v>1.530184488905775</v>
       </c>
       <c r="H16">
-        <v>0.9068950165992078</v>
+        <v>0.8110375363623348</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3486555549086603</v>
+        <v>0.6161938001087321</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.170148946423471</v>
+        <v>0.4380212815594406</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.932622089225219</v>
+        <v>5.090517463271226</v>
       </c>
       <c r="C17">
-        <v>0.2871261640409273</v>
+        <v>0.6222880641714141</v>
       </c>
       <c r="D17">
-        <v>0.0234443977593557</v>
+        <v>0.01251250605079157</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.099846464613208</v>
+        <v>1.506768638994288</v>
       </c>
       <c r="G17">
-        <v>0.9678558779399395</v>
+        <v>1.467994581257898</v>
       </c>
       <c r="H17">
-        <v>0.9036905539724103</v>
+        <v>0.7852693827507551</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3427949579071594</v>
+        <v>0.5902731464284017</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.177320073460731</v>
+        <v>0.4563350043092704</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.897611344218205</v>
+        <v>4.957687465593608</v>
       </c>
       <c r="C18">
-        <v>0.2830971347231923</v>
+        <v>0.6092215739581093</v>
       </c>
       <c r="D18">
-        <v>0.02347492413200314</v>
+        <v>0.01262590152503229</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.09335885130433</v>
+        <v>1.471700751612929</v>
       </c>
       <c r="G18">
-        <v>0.9612217182709912</v>
+        <v>1.432703129833271</v>
       </c>
       <c r="H18">
-        <v>0.9019039544451175</v>
+        <v>0.770693745218864</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3394428761021686</v>
+        <v>0.5754791067029004</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.181500114999875</v>
+        <v>0.4670464279708555</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.885767185835505</v>
+        <v>4.912817701971221</v>
       </c>
       <c r="C19">
-        <v>0.2817315790946964</v>
+        <v>0.6048029011117251</v>
       </c>
       <c r="D19">
-        <v>0.02348535749161584</v>
+        <v>0.01266468323574443</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.091175881851171</v>
+        <v>1.459901897774984</v>
       </c>
       <c r="G19">
-        <v>0.9589885844077628</v>
+        <v>1.420833262935304</v>
       </c>
       <c r="H19">
-        <v>0.901308738376855</v>
+        <v>0.7657994697788979</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3383111398777601</v>
+        <v>0.5704890642124099</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.182924911461728</v>
+        <v>0.4707030417735751</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.939106483636237</v>
+        <v>5.115151952063343</v>
       </c>
       <c r="C20">
-        <v>0.2878711837357173</v>
+        <v>0.6247090402659978</v>
       </c>
       <c r="D20">
-        <v>0.02343879439773389</v>
+        <v>0.01249170636865315</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.101053654438317</v>
+        <v>1.513294964705366</v>
       </c>
       <c r="G20">
-        <v>0.9690899321900588</v>
+        <v>1.474564561239163</v>
       </c>
       <c r="H20">
-        <v>0.9040258217822839</v>
+        <v>0.7879867037108568</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3434168839571186</v>
+        <v>0.5930203773736196</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.17655095914099</v>
+        <v>0.454366917058306</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.119006183948272</v>
+        <v>5.802934076886061</v>
       </c>
       <c r="C21">
-        <v>0.3084021738586102</v>
+        <v>0.6920238701930543</v>
       </c>
       <c r="D21">
-        <v>0.02328914178733399</v>
+        <v>0.01193942332628417</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.135193351470008</v>
+        <v>1.698276868782301</v>
       </c>
       <c r="G21">
-        <v>1.003943710663151</v>
+        <v>1.661042276083208</v>
       </c>
       <c r="H21">
-        <v>0.9138310615964542</v>
+        <v>0.865573339752018</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3607961579424028</v>
+        <v>0.6701531236291913</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.155797890460588</v>
+        <v>0.4016540028172799</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.237092839471984</v>
+        <v>6.259278637348871</v>
       </c>
       <c r="C22">
-        <v>0.3217477030749194</v>
+        <v>0.7364114481800641</v>
       </c>
       <c r="D22">
-        <v>0.02319639856061606</v>
+        <v>0.01160248003973408</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.158219585208755</v>
+        <v>1.82384474259122</v>
       </c>
       <c r="G22">
-        <v>1.027410051649866</v>
+        <v>1.787898147748194</v>
       </c>
       <c r="H22">
-        <v>0.9207453819146849</v>
+        <v>0.9188020105527812</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3723226823111503</v>
+        <v>0.7217695377489406</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.1427298370928</v>
+        <v>0.3689407580294883</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.174020949308783</v>
+        <v>6.015032049567026</v>
       </c>
       <c r="C23">
-        <v>0.3146316029752825</v>
+        <v>0.7126801433740866</v>
       </c>
       <c r="D23">
-        <v>0.02324543399225298</v>
+        <v>0.01177994476834421</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.145864424549316</v>
+        <v>1.756365040335481</v>
       </c>
       <c r="G23">
-        <v>1.014822361633151</v>
+        <v>1.71969971636446</v>
       </c>
       <c r="H23">
-        <v>0.9170086456882416</v>
+        <v>0.890144861838337</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3661553261822377</v>
+        <v>0.6941011183283621</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.149659089327352</v>
+        <v>0.3862334938156211</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.936174759221331</v>
+        <v>5.104012922139816</v>
       </c>
       <c r="C24">
-        <v>0.2875343913276822</v>
+        <v>0.6236144312797194</v>
       </c>
       <c r="D24">
-        <v>0.02344132586341274</v>
+        <v>0.01250110251375425</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.100507645644043</v>
+        <v>1.510343068514743</v>
       </c>
       <c r="G24">
-        <v>0.9685317880029345</v>
+        <v>1.47159284084276</v>
       </c>
       <c r="H24">
-        <v>0.9038740737677529</v>
+        <v>0.7867574626152134</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3431356574611044</v>
+        <v>0.5917780195434972</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.176898497367752</v>
+        <v>0.4552561221262801</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.68181702439756</v>
+        <v>4.145068885369653</v>
       </c>
       <c r="C25">
-        <v>0.2579948186719321</v>
+        <v>0.5287913626221439</v>
       </c>
       <c r="D25">
-        <v>0.02367436662889233</v>
+        <v>0.01336693185907833</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.054618188909842</v>
+        <v>1.261865540985539</v>
       </c>
       <c r="G25">
-        <v>0.9215140336207526</v>
+        <v>1.221934708445957</v>
       </c>
       <c r="H25">
-        <v>0.8918656240284975</v>
+        <v>0.6844708759376203</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3190225148812971</v>
+        <v>0.4857118374278002</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.208397590760398</v>
+        <v>0.5364374973105166</v>
       </c>
       <c r="O25">
         <v>0</v>
